--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1610112.424502823</v>
+        <v>1607860.344791615</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>138.8437204680913</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>140.4615936850612</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.445065564637</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>53.54735467376771</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>188.8434718521925</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>111.6770057037254</v>
       </c>
       <c r="W5" t="n">
-        <v>57.01231827275598</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>187.1645241199441</v>
+        <v>244.6663340964656</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.13306042727076</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>112.0789181391335</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677224</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.2383728284217</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.23631477520157</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389033</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1658,7 +1658,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0127623547397809</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365869</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>102.1557845699836</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.2105855891487</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272864</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>68.17501931583644</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428033</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>119.3168020713731</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826188928</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788177681</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2071.975386180639</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.012869240228</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D2" t="n">
-        <v>1344.747170633477</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E2" t="n">
-        <v>958.958918035233</v>
+        <v>424.0701624477505</v>
       </c>
       <c r="F2" t="n">
-        <v>547.9730132456255</v>
+        <v>417.124661698547</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4343,37 +4343,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180639</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,37 +4422,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7293032143256</v>
+        <v>120.6003534763932</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>120.6003534763932</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133538</v>
       </c>
       <c r="V4" t="n">
-        <v>730.1360241493036</v>
+        <v>410.0175235133538</v>
       </c>
       <c r="W4" t="n">
-        <v>440.718854112343</v>
+        <v>120.6003534763932</v>
       </c>
       <c r="X4" t="n">
-        <v>212.7293032143256</v>
+        <v>120.6003534763932</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.7293032143256</v>
+        <v>120.6003534763932</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2643.001872527934</v>
       </c>
       <c r="W5" t="n">
-        <v>2367.155841175242</v>
+        <v>2290.233217257819</v>
       </c>
       <c r="X5" t="n">
-        <v>2367.155841175242</v>
+        <v>1916.76745899674</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.016509199431</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="V7" t="n">
-        <v>731.8319309495545</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W7" t="n">
-        <v>442.4147609125939</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1155.076184668035</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>786.1136677276231</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>786.1136677276231</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4817,37 +4817,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3242.643134308897</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3242.643134308897</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2989.112657582733</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2658.049770239163</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2305.281114969048</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1931.815356707968</v>
+        <v>1958.764357757271</v>
       </c>
       <c r="Y8" t="n">
-        <v>1541.676024732157</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596504</v>
@@ -4990,22 +4990,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>410.0175235133541</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181845</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>114.2598873597751</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614433</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5306,10 +5306,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179133</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359461</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614435</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179133</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="E19" t="n">
-        <v>377.6556127449245</v>
+        <v>197.0043242297735</v>
       </c>
       <c r="F19" t="n">
-        <v>377.6556127449245</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>210.4595134598044</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876675</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597606</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.917417812163</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614373</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179072</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6303,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6364,16 +6364,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2259.395357538347</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1970.320130882545</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1715.635642676658</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1426.218472639697</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1198.22892174168</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782942</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,22 +7017,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7160,40 +7160,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,22 +7391,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7637,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7789,13 +7789,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>144.5956654067357</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229328</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2340587438881</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294766</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>106.0841272570752</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>80.44045370237592</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909865092</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856639</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>98.0886482559152</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.45968844823241</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462248</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.229103921944</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193023</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>902499.9148193024</v>
+        <v>902499.9148193023</v>
       </c>
     </row>
     <row r="10">
@@ -26314,7 +26314,7 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
@@ -26326,25 +26326,25 @@
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985036</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
         <v>524645.2897985041</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405265</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="K4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687968</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996598.2799812543</v>
+        <v>-996598.2799812539</v>
       </c>
       <c r="C6" t="n">
         <v>332146.4657463382</v>
       </c>
       <c r="D6" t="n">
-        <v>332146.4657463386</v>
+        <v>332146.4657463383</v>
       </c>
       <c r="E6" t="n">
-        <v>82673.65816036143</v>
+        <v>82638.92023492575</v>
       </c>
       <c r="F6" t="n">
-        <v>408086.119967717</v>
+        <v>408051.3820422813</v>
       </c>
       <c r="G6" t="n">
-        <v>408086.1199677168</v>
+        <v>408051.3820422812</v>
       </c>
       <c r="H6" t="n">
-        <v>408086.1199677172</v>
+        <v>408051.3820422812</v>
       </c>
       <c r="I6" t="n">
-        <v>408086.1199677172</v>
+        <v>408051.3820422812</v>
       </c>
       <c r="J6" t="n">
-        <v>190554.9175704396</v>
+        <v>190520.1796450042</v>
       </c>
       <c r="K6" t="n">
-        <v>408086.1199677172</v>
+        <v>408051.3820422814</v>
       </c>
       <c r="L6" t="n">
-        <v>408086.1199677173</v>
+        <v>408051.3820422814</v>
       </c>
       <c r="M6" t="n">
-        <v>323031.0920322054</v>
+        <v>322996.3541067695</v>
       </c>
       <c r="N6" t="n">
-        <v>408086.1199677173</v>
+        <v>408051.3820422816</v>
       </c>
       <c r="O6" t="n">
-        <v>408086.1199677172</v>
+        <v>408051.3820422814</v>
       </c>
       <c r="P6" t="n">
-        <v>408086.1199677172</v>
+        <v>408051.3820422814</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>226.4291713029162</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>270.4601319683923</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>95.06811834444466</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>63.29417147163551</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>216.0752527664095</v>
       </c>
       <c r="W5" t="n">
-        <v>292.228650444657</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27831,7 +27831,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>64.9731192038839</v>
+        <v>7.47130922736244</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>27.05470136090509</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>257.6521825393355</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351651</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28062,10 +28062,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.34628052367304</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28989,28 +28989,28 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>-1.696776052995119e-12</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30159,7 +30159,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>-2.163473208342858e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31604,7 +31604,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138795</v>
@@ -31622,7 +31622,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31835,34 +31835,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>145.7021085929658</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>388.5140139297707</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32312,19 +32312,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>707.690770008913</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>502.5232631188761</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,25 +33968,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34126,10 +34126,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34208,13 +34208,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,10 +34448,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340053</v>
@@ -35270,7 +35270,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>18.86448192629906</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>245.9177694853263</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394598</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010434</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,7 +36671,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>576.3490579255797</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>368.5488557045459</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295185</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,13 +37856,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998967</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
